--- a/Berri_Sarah_rapport_analyse_092022/Berri_Sarah_P4_audit_092022.xlsx
+++ b/Berri_Sarah_rapport_analyse_092022/Berri_Sarah_P4_audit_092022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\Berri_Sarah_rapport_analyse_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17B967-0BD7-4F62-9165-3B5AED135550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DF012-958A-4201-A751-BE4FD9CEDACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11856" windowHeight="11916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Catégorie</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/exercises/4350</t>
-  </si>
-  <si>
-    <t>Des mots-clés pertinents ont été ajoutés</t>
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
@@ -170,24 +167,15 @@
     </r>
   </si>
   <si>
-    <t>L'attribut alt des images a bien été fait                     Les balises méta : description et robots ont été ajoutées                                                                 Les textes en tant qu'image ont été supprimées</t>
-  </si>
-  <si>
     <t>Il faut que le site soit totalement responsive, et les images au bon format (webp, AVIF par exemple)</t>
   </si>
   <si>
-    <t>Le site est bien responsive, les images sont au bon format et leur poids rend le chargement plus rapide</t>
-  </si>
-  <si>
     <t>Le formulaire est accessible mais des modifications doivent y être apportées notamment les labels</t>
   </si>
   <si>
     <t>Les liens qui n'ont pas de rapport avec le site ont été supprimés (peut-être des concurrents)</t>
   </si>
   <si>
-    <t>Les textes ont été agrandit et la couleur des texte a été modifier, la couleur d'arrière plan a été modifié avant de palier les erreurs de contrast</t>
-  </si>
-  <si>
     <t>Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Paramétrer les balises méta description, et robots                                                                      Enlever l'image en tant que texte</t>
   </si>
   <si>
@@ -206,13 +194,7 @@
     <t xml:space="preserve">Renommer l'URL de la page index et contact                            Renommer les balises lang et title dans les deux pages                                                                                   </t>
   </si>
   <si>
-    <t>L' URLs des pages a été renommé, les balises title et lang ont été renommées</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'URL de la page contact et index ne comporte pas le nom de la page                                                                                                        Les balises lang et title ne sont pas complétées dans les deux pages                                   </t>
-  </si>
-  <si>
-    <t>La balise "méta= keywords" aété supprimée</t>
   </si>
   <si>
     <t xml:space="preserve">Hiérarchie des balises, h1 et ensuite h2 respectée : un seul h1 par page </t>
@@ -613,6 +595,541 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1752600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphique 5" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCA84AC-DDD7-4AF8-86B4-85B1E9CF2132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21050250" y="2305050"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1771650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphique 6" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3B95EF-9B1C-466D-8DBF-716CA4970E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21374100" y="5029200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphique 7" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119325BD-ED3F-4BCA-93B1-29575493637D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20459700" y="7410450"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1790700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphique 8" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ECE4FF-27D2-4494-80A2-8F09330C8AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20383500" y="5048250"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphique 9" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39047B11-08F4-4FCA-AC67-F77EBE5F2B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19735800" y="19202400"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphique 10" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C39C17-B3A6-4E60-9856-A24F9364797C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20783550" y="19202400"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphique 11" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF8E805-9A5B-4D13-80F3-F74F26FDAB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20326350" y="15621000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1352550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphique 12" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB37FB4-A2A5-4B38-A54F-07094839ED92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20288250" y="17297400"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1771650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphique 13" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BAA9C6-0715-42A0-A0A4-E605D59723A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19488150" y="5029200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphique 14" descr="Badge croix avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E346F0A1-C79D-4B77-8E3C-0F9A363E4E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19812000" y="2266950"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -881,14 +1398,12 @@
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E2" s="26"/>
       <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
@@ -905,14 +1420,12 @@
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
@@ -929,14 +1442,12 @@
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
@@ -962,7 +1473,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -983,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1004,13 +1515,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1031,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>27</v>
@@ -1049,14 +1560,12 @@
         <v>24</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>28</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1073,14 +1582,12 @@
         <v>17</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1097,16 +1604,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1121,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>22</v>
@@ -1142,16 +1647,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="10"/>
@@ -3511,5 +4016,6 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="landscape" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>